--- a/datatables/datas/player.xlsx
+++ b/datatables/datas/player.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD5D403-AB19-4592-B04F-2B0609955BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF461A-3A45-4910-A15F-1DDD32ACB154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,11 +154,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int#ref=active_camp@relationship.TbRelationShip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>阵营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#ref=active_camp@unit.TbRelationShip</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,15 +246,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -266,13 +257,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -555,7 +545,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -564,7 +554,8 @@
     <col min="2" max="2" width="6.76171875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3515625" customWidth="1"/>
-    <col min="5" max="5" width="22.76171875" customWidth="1"/>
+    <col min="5" max="5" width="38.5859375" customWidth="1"/>
+    <col min="6" max="6" width="23.234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1">
@@ -583,7 +574,6 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -619,10 +609,9 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -655,7 +644,6 @@
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -692,9 +680,8 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>22</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
